--- a/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_42_25.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_42_25.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5572.6</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>5948</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4898</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1428212404251099</v>
+        <v>5815</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34, 10, 1, 23, 4, 13, 40, 25, 35, 33, 36, 31, 22, 28, 20, 38, 24, 6, 9, 27, 42, 14, 12, 8, 18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 12 -&gt; 13 -&gt; 20 -&gt; 24 -&gt; 40 -&gt; 42 -&gt; 31 -&gt; 38 -&gt; 6 -&gt; 35 -&gt; 34 -&gt; 28 -&gt; 27 -&gt; 9 -&gt; 23 -&gt; 18 -&gt; 22 -&gt; 14 -&gt; 10 -&gt; 4 -&gt; 1 -&gt; 8 -&gt; 36 -&gt; 33 -&gt; 25 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 32 -&gt; 41 -&gt; 42 -&gt; 40 -&gt; 42 -&gt; 40 -&gt; 39 -&gt; 38 -&gt; 31 -&gt; 38 -&gt; 37 -&gt; 30 -&gt; 29 -&gt; 28 -&gt; 27 -&gt; 6 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 35 -&gt; 29 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 27 -&gt; 28 -&gt; 9 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 23 -&gt; 22 -&gt; 21 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 13 -&gt; 29 -&gt; 30 -&gt; 37 -&gt; 36 -&gt; 35 -&gt; 29 -&gt; 28 -&gt; 27 -&gt; 33 -&gt; 26 -&gt; 25 -&gt; 3 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1712374687194824</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5913.733333333334</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>6355</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5422</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1419490416844686</v>
+        <v>5411</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8, 2, 21, 27, 12, 19, 31, 39, 38, 14, 26, 13, 40, 15, 24, 7, 1, 20, 11, 32, 34, 18, 10, 36, 5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 24 -&gt; 20 -&gt; 19 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 11 -&gt; 2 -&gt; 26 -&gt; 27 -&gt; 34 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 1 -&gt; 13 -&gt; 31 -&gt; 39 -&gt; 40 -&gt; 36 -&gt; 38 -&gt; 32 -&gt; 7 -&gt; 21 -&gt; 15 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 20 -&gt; 19 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 11 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 29 -&gt; 13 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 13 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 38 -&gt; 39 -&gt; 40 -&gt; 39 -&gt; 36 -&gt; 37 -&gt; 38 -&gt; 41 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 15 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1689846515655518</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5434</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>5712</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4907</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1432132085164388</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6004.266666666666</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6493</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5442</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1438777208328247</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5218.8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5526</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4554</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1799406925837199</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5584.033333333334</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6011</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5059</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1889596303304036</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6360.266666666666</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6958</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5321</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.197020967801412</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6092.466666666666</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6485</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5564</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1495426257451375</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6158.433333333333</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6859</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5493</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1747211456298828</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6175.3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6506</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5389</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1933321237564087</v>
+        <v>5765</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32, 42, 20, 17, 16, 1, 15, 11, 37, 9, 24, 28, 5, 21, 22, 3, 2, 18, 27, 23, 13, 34, 7, 14, 41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 23 -&gt; 15 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 14 -&gt; 7 -&gt; 11 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 2 -&gt; 1 -&gt; 3 -&gt; 28 -&gt; 42 -&gt; 41 -&gt; 32 -&gt; 37 -&gt; 27 -&gt; 34 -&gt; 5 -&gt; 16 -&gt; 13 -&gt; 9 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 9 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 15 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 10 -&gt; 11 -&gt; 12 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 2 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 37 -&gt; 38 -&gt; 39 -&gt; 40 -&gt; 42 -&gt; 41 -&gt; 32 -&gt; 41 -&gt; 38 -&gt; 37 -&gt; 30 -&gt; 29 -&gt; 28 -&gt; 27 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 9 -&gt; 8 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 16 -&gt; 12 -&gt; 13 -&gt; 9 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1780123710632324</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_42_25.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_42_25.xlsx
@@ -454,7 +454,7 @@
         <v>5815</v>
       </c>
       <c r="D2" t="n">
-        <v>0.118267297744751</v>
+        <v>0.1160552501678467</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_42_25.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_42_25.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Qtd_Nós</t>
+          <t>Índice</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>Ativos</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
         <is>
           <t>Distancia</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -445,16 +450,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>5351.066666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>5815</v>
+        <v>5697</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1160552501678467</v>
+        <v>4691</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1173476060231527</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5241.366666666667</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5584</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4762</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1177621046702067</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5180.066666666667</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5603</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4199</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1190128167470296</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5670.966666666666</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5963</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5325</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1182988484700521</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5042.566666666667</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5358</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4432</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1239565928777059</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5010.633333333333</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5413</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4378</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1186003843943278</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5529.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5984</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4872</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1214144468307495</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5383.833333333333</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5789</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4916</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.121527640024821</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5328.633333333333</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5577</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4668</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1228060881296794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5333.666666666667</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5927</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4877</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1205890417098999</v>
       </c>
     </row>
   </sheetData>
